--- a/data/trans_bre/P1416-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1416-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.104765646751342</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.473991408560835</v>
+        <v>-4.473991408560839</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.06406659775627432</v>
@@ -649,7 +649,7 @@
         <v>0.4918531912621973</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4306472960405169</v>
+        <v>-0.4306472960405173</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.256225470120143</v>
+        <v>-4.329321405450849</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9208368160241459</v>
+        <v>-0.6866518721865508</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.934254654294339</v>
+        <v>-1.237732754267641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.411360919917895</v>
+        <v>-9.955662546864128</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5614435488162682</v>
+        <v>-0.5855454969863455</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1095285140760082</v>
+        <v>-0.1092906094383216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.25844558359369</v>
+        <v>-0.1996389930023139</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6641792983276712</v>
+        <v>-0.702790776753445</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.591658803025351</v>
+        <v>3.191594472572881</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.705031653326923</v>
+        <v>9.181435613311169</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.850620898404127</v>
+        <v>7.870796794065026</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.284332313654518</v>
+        <v>-0.1114577754572294</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.008999277762153</v>
+        <v>0.9072626614425312</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.668254175341068</v>
+        <v>1.624616879980873</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.850027935336492</v>
+        <v>1.680827530930107</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.08782713373502185</v>
+        <v>0.03325141497815006</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.644535549299918</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.382356752672379</v>
+        <v>0.3823567526723776</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5950217114624329</v>
@@ -749,7 +749,7 @@
         <v>0.9934435582244874</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.03126529633532586</v>
+        <v>0.03126529633532574</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4769061034165792</v>
+        <v>0.3973008903396307</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.133819675726135</v>
+        <v>-2.273586676910785</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7086917600499256</v>
+        <v>0.840437534931728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.632241914487613</v>
+        <v>-4.833391572577749</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04797901764313638</v>
+        <v>0.0389607454808004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2793889923746624</v>
+        <v>-0.2833635528675044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1054152378672685</v>
+        <v>0.1695136753761474</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.287674424670818</v>
+        <v>-0.3068437377434781</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.697781549871327</v>
+        <v>7.716009611244099</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.412772934229372</v>
+        <v>4.352299297587319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.371689949103692</v>
+        <v>6.486114414449625</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.442333902244675</v>
+        <v>4.443671303153633</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.60580263493617</v>
+        <v>1.54722955657472</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.05407105776857</v>
+        <v>1.032193878616455</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.634654288276898</v>
+        <v>2.884677611461997</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4815662264431469</v>
+        <v>0.4744320406133933</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.055005645814426</v>
+        <v>-0.9838656644091133</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08025187908865357</v>
+        <v>0.09221900468593099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.052309618350777</v>
+        <v>-3.061825565428342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.543035044566315</v>
+        <v>-3.415791168144692</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2051371486494968</v>
+        <v>-0.2367766397934862</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.05506005768688196</v>
+        <v>-0.02376712346970049</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5125812725623105</v>
+        <v>-0.5301996740790251</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.289833481672103</v>
+        <v>-0.2918112106601821</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.447582998346013</v>
+        <v>6.359909975407277</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.563577245550153</v>
+        <v>7.636301802262281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.805189965803276</v>
+        <v>2.731860051496839</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.7991343350515</v>
+        <v>5.255678430830457</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.471069647991696</v>
+        <v>2.294625598273687</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.981575497027871</v>
+        <v>3.426753707652991</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.014342486595019</v>
+        <v>0.9950467991435659</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7035507753191951</v>
+        <v>0.7922059914354954</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.719669502353715</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8168018216183098</v>
+        <v>0.8168018216183105</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3362899254787797</v>
@@ -949,7 +949,7 @@
         <v>0.7030185329303191</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1702962656532412</v>
+        <v>0.1702962656532414</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.527582785260705</v>
+        <v>-1.166841191344918</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.363217616236051</v>
+        <v>-0.2134168786786527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.02819905546774151</v>
+        <v>-0.2658375198608445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.885474856863718</v>
+        <v>-3.358499790795475</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1434485812026538</v>
+        <v>-0.1262937971648311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1053260714035253</v>
+        <v>-0.06395637253794843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0851060407163152</v>
+        <v>-0.06388210418544062</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5061527537941353</v>
+        <v>-0.4581678473029525</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.71700265164201</v>
+        <v>7.381694955304195</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.758416731720085</v>
+        <v>6.849676425829608</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.528094410551183</v>
+        <v>7.714887308510245</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.944170021982798</v>
+        <v>4.26001643594398</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.210352792886265</v>
+        <v>1.111838285734575</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.240902231745758</v>
+        <v>2.144693742210717</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.066397861131494</v>
+        <v>2.229610097639499</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.350601371246828</v>
+        <v>1.722074263010367</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.549659218594201</v>
+        <v>-1.802124209078886</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.164760707052261</v>
+        <v>-0.8695632887008333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.467498124968868</v>
+        <v>-1.585202906852152</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.310869022448423</v>
+        <v>-2.713164688008719</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1697611706981124</v>
+        <v>-0.1841032480634057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1645895316126706</v>
+        <v>-0.1328944756217403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2592343715417461</v>
+        <v>-0.2525812213087545</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2569150529032285</v>
+        <v>-0.2262356936715232</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.96940597973386</v>
+        <v>11.07077844634503</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.03244690594162</v>
+        <v>10.31033762537752</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.846540533867176</v>
+        <v>7.855309904006457</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.294843095982797</v>
+        <v>6.483623356109764</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.873081981311913</v>
+        <v>2.087798504670168</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.086499782850263</v>
+        <v>1.964881906573011</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.304219287725636</v>
+        <v>2.200119191966664</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9390892018749577</v>
+        <v>0.9990970093312288</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.8808894300010028</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.983477253169335</v>
+        <v>3.98347725316934</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6461254556480724</v>
@@ -1149,7 +1149,7 @@
         <v>0.1406616381721055</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2860196594843353</v>
+        <v>0.2860196594843358</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.7335479728647479</v>
+        <v>-0.6567758565122681</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.393948352678755</v>
+        <v>-4.571430228322941</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.621017286167339</v>
+        <v>-3.530593247503501</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-1.478957520490018</v>
+        <v>-1.2421541615566</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1608518180918552</v>
+        <v>-0.1171844080349641</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5621460611338631</v>
+        <v>-0.5718729216659556</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4327252957281867</v>
+        <v>-0.4198607735349982</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.08242533383491681</v>
+        <v>-0.07702370243933522</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.074600157127607</v>
+        <v>8.35359126782676</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.48419753459502</v>
+        <v>3.903125224246398</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.19814731858404</v>
+        <v>5.046614285559787</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.937941570242382</v>
+        <v>9.369169117643253</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.223969519630422</v>
+        <v>2.465838942507527</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.005772052473894</v>
+        <v>1.015892942287665</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.185977710443212</v>
+        <v>1.161844268074931</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8164188213368839</v>
+        <v>0.8739068650058288</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>4.671567651755669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.11527561017428</v>
+        <v>5.115275610174281</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5047629500750948</v>
@@ -1249,7 +1249,7 @@
         <v>1.577046359335026</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4184710860753018</v>
+        <v>0.4184710860753019</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3895585097917658</v>
+        <v>-0.3185828639580177</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01828740408166936</v>
+        <v>-0.1394413584861101</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.513757829357568</v>
+        <v>2.170263317530282</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6872518047931916</v>
+        <v>1.599499670403644</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.08702620716427405</v>
+        <v>-0.08408257402638397</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.03413367639666012</v>
+        <v>-0.04623590457621037</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4791506635720874</v>
+        <v>0.5114155093748858</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.03825343228810693</v>
+        <v>0.09753286973560989</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.678362678949314</v>
+        <v>4.822278580175158</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.577274061565381</v>
+        <v>4.679847945017062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.257067389665739</v>
+        <v>7.215546981548952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.979093376803588</v>
+        <v>9.035732889398886</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.512091309222056</v>
+        <v>1.553917144133905</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.85178611143969</v>
+        <v>1.870277618952153</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.728967498551584</v>
+        <v>3.748262212761236</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.8985006054028595</v>
+        <v>0.9103106314138453</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1672521976373799</v>
+        <v>0.0140621237683133</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.073843969917942</v>
+        <v>-1.038076313145847</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2049151032705775</v>
+        <v>0.3992472440547927</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.708897117613621</v>
+        <v>1.572320481312915</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01269813214125411</v>
+        <v>-0.002017642006739736</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1804173659949229</v>
+        <v>-0.161958036059559</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03236186243545474</v>
+        <v>0.03473640160227078</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1822258565681495</v>
+        <v>0.186418167201198</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.528380905206778</v>
+        <v>6.514546192389059</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.629347289741644</v>
+        <v>3.537636494924398</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.490401771194954</v>
+        <v>5.986695677895812</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.267967977855291</v>
+        <v>7.257219279933973</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8494258050270788</v>
+        <v>0.8415304022978009</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.899593792146267</v>
+        <v>0.9264788578997015</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.076261545695893</v>
+        <v>1.175508256578573</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.342365396669231</v>
+        <v>1.392594720641432</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>3.010031432358441</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2.252058791228056</v>
+        <v>2.252058791228054</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4328140102318511</v>
@@ -1449,7 +1449,7 @@
         <v>0.6100891366439811</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.2316181532453851</v>
+        <v>0.2316181532453848</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.597517952178528</v>
+        <v>1.520765922735759</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9487374312323866</v>
+        <v>1.067442532033825</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.892273062229956</v>
+        <v>1.747429586434055</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.6789875333690789</v>
+        <v>0.8882153721573454</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2149115787429046</v>
+        <v>0.2084628269614865</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1516917734025253</v>
+        <v>0.1842686693701052</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3511139445811726</v>
+        <v>0.309775871619161</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.06157492173194098</v>
+        <v>0.08033403904285948</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.231508467912104</v>
+        <v>4.310981994245522</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.408361864284346</v>
+        <v>3.35501254435537</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.269127822496537</v>
+        <v>4.176637074262669</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.657724866513597</v>
+        <v>3.812806017662803</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.6998063156302405</v>
+        <v>0.69877039523018</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7406307673275184</v>
+        <v>0.7384892722691967</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9877434258020898</v>
+        <v>0.9358480126092941</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.4161546193975327</v>
+        <v>0.4352272076881335</v>
       </c>
     </row>
     <row r="31">
